--- a/excel/11.xlsx
+++ b/excel/11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50F159-9EE9-455B-B306-0B7C3CBB6D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03562A3B-02BD-4626-8D23-0DE82CE9390D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="1590" windowWidth="19470" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1870" yWindow="3410" windowWidth="19470" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>第10回</t>
     <phoneticPr fontId="1"/>
@@ -763,6 +763,10 @@
     <rPh sb="27" eb="28">
       <t>オモ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←=BINOM.DIST(A91,20,1/2,FALSE)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1469,7 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -1854,7 +1860,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:3">

--- a/excel/11.xlsx
+++ b/excel/11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03562A3B-02BD-4626-8D23-0DE82CE9390D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F73817-99E4-4A07-8EEF-8D75FCDBFD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1870" yWindow="3410" windowWidth="19470" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12500" yWindow="2990" windowWidth="22990" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>第10回</t>
     <phoneticPr fontId="1"/>
@@ -114,9 +114,6 @@
     <t>赤い部分の確率を計算すると，約0.058になります．</t>
   </si>
   <si>
-    <t>（ちょっと細かいことを言うと，2倍するのではなく，表が6回以下になる確率を足すという考え方もあります．今の場合は分布が左右対称なので同じ結果になりますが，分布が左右対称でない場合は，考え方によって結論が変わることがあります．）</t>
-  </si>
-  <si>
     <t>これは，最初に決めた有意水準より大きい確率です．</t>
   </si>
   <si>
@@ -767,6 +764,14 @@
   </si>
   <si>
     <t>←=BINOM.DIST(A91,20,1/2,FALSE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>練習問題：コインを1000回投げたら表が600回出ました．このコインは歪んでいると言えるでしょうか．有意水準5%で検定してください．（第1の方法と第2の方法を試してください．）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ちょっと細かいことを言うと，2倍するのではなく，表が6回以下になる確率を足すという考え方もあります．今の場合は分布が左右対称なので同じ結果になりますが，分布が左右対称でない場合は，考え方によって結論が変わることがあります．）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,7 +779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +809,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -831,11 +843,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -857,23 +870,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479137</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="グラフィックス 1">
+        <xdr:cNvPr id="10" name="グラフィックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F108C9CA-A5A8-40F4-A62C-A74091DDED64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653ED39B-6EA6-4F2E-857A-BFD3FCA43492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -895,8 +908,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6121400" y="5226050"/>
-          <a:ext cx="4572000" cy="2924175"/>
+          <a:off x="5085773" y="23800955"/>
+          <a:ext cx="4572000" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,23 +920,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>646545</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="グラフィックス 2">
+        <xdr:cNvPr id="11" name="グラフィックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81947F6-3D08-4C91-AA10-F577FB84BAC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2FA6C7-8930-4812-8B76-18A47937FD9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,8 +958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="17799050"/>
-          <a:ext cx="4572000" cy="2924175"/>
+          <a:off x="5287818" y="28009272"/>
+          <a:ext cx="4572000" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,22 +971,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>456046</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>421409</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>204065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="グラフィックス 3">
+        <xdr:cNvPr id="12" name="グラフィックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E1148C-DA5C-45B0-B33F-CE3FE09A3D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A1EDBA-309B-40F1-9827-979494B043D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,8 +1008,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4806950" y="23456900"/>
-          <a:ext cx="4572000" cy="2781300"/>
+          <a:off x="5062682" y="31992454"/>
+          <a:ext cx="4572000" cy="2847975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1007,23 +1020,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>18371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="グラフィックス 4">
+        <xdr:cNvPr id="15" name="グラフィックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437C47C9-B234-499F-A907-6F83C6D211E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCE0638-525E-43BA-9387-90923474033D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1045,8 +1058,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="27730450"/>
-          <a:ext cx="4572000" cy="2705100"/>
+          <a:off x="51955" y="37049364"/>
+          <a:ext cx="9729643" cy="1992643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,22 +1071,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>629228</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:colOff>594591</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>218209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="グラフィックス 5">
+        <xdr:cNvPr id="16" name="グラフィックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62959BD9-1BA7-4AB9-898C-6D36949097E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F4998A-D506-4B07-97DA-28CC0BD862D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,8 +1108,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5270500" y="31788100"/>
-          <a:ext cx="4572000" cy="2847975"/>
+          <a:off x="5235864" y="40155091"/>
+          <a:ext cx="4572000" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1107,23 +1120,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398317</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>14720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="グラフィックス 6">
+        <xdr:cNvPr id="17" name="グラフィックス 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBE2847-DE63-4D36-9079-FDA682D0E3DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0368D7C9-478A-4856-A12D-3875E85A92DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,58 +1158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="37007800"/>
-          <a:ext cx="7620000" cy="1571625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="グラフィックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F03A0B-9EFE-4C4B-B3F3-FD2384AC8C48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4984750" y="39757350"/>
-          <a:ext cx="4572000" cy="2781300"/>
+          <a:off x="5697681" y="19026909"/>
+          <a:ext cx="4572000" cy="2924175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,10 +1434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1601,122 +1567,122 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>24</v>
+      <c r="A39" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
         <v>42</v>
-      </c>
-      <c r="B65" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1725,7 +1691,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1734,7 +1700,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1743,7 +1709,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1752,7 +1718,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1761,7 +1727,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1770,7 +1736,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1779,79 +1745,79 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
         <v>42</v>
-      </c>
-      <c r="B90" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1860,7 +1826,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1869,231 +1835,231 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94" s="2"/>
       <c r="C94" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2"/>
       <c r="B140" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2"/>
       <c r="B205" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>